--- a/DEV/Microservicios-Product-app/Plan-restriction-controller/US3_CP_DEV.xlsx
+++ b/DEV/Microservicios-Product-app/Plan-restriction-controller/US3_CP_DEV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Escritorio\DOCUMENTOS\DEV\Microservicios-Product-app\Plan-restriction-controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC476DEF-CB48-4C37-BB2A-C232F5CF6D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514C699A-8481-45C9-A70D-5499748E850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7989457-68F4-4A2A-B67F-64262A68E569}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="95">
   <si>
     <t>Sprint</t>
   </si>
@@ -292,9 +292,6 @@
     <t>plan-restriction/free-delivery/update</t>
   </si>
   <si>
-    <t>en postman indica no se encontro el plan restriction</t>
-  </si>
-  <si>
     <t>Validar la actualizacion de registro de Plan Restriccion y Descuento de comida</t>
   </si>
   <si>
@@ -326,6 +323,13 @@
   </si>
   <si>
     <t>plan-restriction/plan-duration/update</t>
+  </si>
+  <si>
+    <t>en postman indica 
+no se encontro el plan restriction</t>
+  </si>
+  <si>
+    <t>plan-restriction/read</t>
   </si>
 </sst>
 </file>
@@ -739,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEFDFD0-32E2-4D6C-ACEB-3E52EFAD76E5}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -840,7 +844,9 @@
       <c r="J2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="L2" s="4"/>
       <c r="M2" s="3" t="s">
         <v>40</v>
@@ -1125,7 +1131,7 @@
         <v>62</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="3" t="s">
@@ -1264,7 +1270,7 @@
         <v>69</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>71</v>
@@ -1310,7 +1316,7 @@
         <v>72</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>73</v>
@@ -1356,7 +1362,7 @@
         <v>74</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>75</v>
@@ -1402,7 +1408,7 @@
         <v>76</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>77</v>
@@ -1448,7 +1454,7 @@
         <v>78</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>79</v>
@@ -1494,14 +1500,14 @@
         <v>80</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="3" t="s">
-        <v>82</v>
+      <c r="M16" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>15</v>
@@ -1540,10 +1546,10 @@
         <v>80</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
@@ -1583,16 +1589,16 @@
         <v>23</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="L18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>14</v>
